--- a/Python/PlayPython/Skool VS Koshuis/Output/Final_All.xlsx
+++ b/Python/PlayPython/Skool VS Koshuis/Output/Final_All.xlsx
@@ -564,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -590,13 +590,13 @@
         <v>1000</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -616,13 +616,13 @@
         <v>1000</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="H4">
-        <v>1050</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -642,13 +642,13 @@
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="H5">
-        <v>1050</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -720,13 +720,13 @@
         <v>1000</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -772,13 +772,13 @@
         <v>800</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>820</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -824,13 +824,13 @@
         <v>1000</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -850,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -876,13 +876,13 @@
         <v>1000</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -928,13 +928,13 @@
         <v>1000</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -980,13 +980,13 @@
         <v>1000</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1032,13 +1032,13 @@
         <v>1000</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1084,13 +1084,13 @@
         <v>1000</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1020</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Python/PlayPython/Skool VS Koshuis/Output/Final_All.xlsx
+++ b/Python/PlayPython/Skool VS Koshuis/Output/Final_All.xlsx
@@ -564,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G2">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="H2">
-        <v>960</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -590,13 +590,13 @@
         <v>1000</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -616,13 +616,13 @@
         <v>1000</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G4">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="H4">
-        <v>2360</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -642,13 +642,13 @@
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G5">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="H5">
-        <v>2360</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G6">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="H6">
-        <v>960</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G7">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="H7">
-        <v>960</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -720,13 +720,13 @@
         <v>1000</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -772,13 +772,13 @@
         <v>800</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1800</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -824,13 +824,13 @@
         <v>1000</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -850,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -876,13 +876,13 @@
         <v>1000</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -928,13 +928,13 @@
         <v>1000</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -980,13 +980,13 @@
         <v>1000</v>
       </c>
       <c r="F18">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1032,13 +1032,13 @@
         <v>1000</v>
       </c>
       <c r="F20">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1084,13 +1084,13 @@
         <v>1000</v>
       </c>
       <c r="F22">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
